--- a/docs/trainerverguetung.xlsx
+++ b/docs/trainerverguetung.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haufe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Nextcloud\Dokumente\encypted\VC Müllheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC028664-6EE7-7C4B-8FCF-7AEA50F5F5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86B977-2287-4010-B99E-B8D14AF9E456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="500" windowWidth="32760" windowHeight="26580"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Übungsstunden Abrechnung</t>
   </si>
@@ -96,17 +96,22 @@
   </si>
   <si>
     <t>BIC:</t>
+  </si>
+  <si>
+    <t>Pauschale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,6 +145,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -357,8 +368,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,24 +396,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -425,9 +435,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,16 +471,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Grafik 2">
+        <xdr:cNvPr id="1048" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5890B6D-5FCD-C137-A2FD-6FD405D35512}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B06F8F4-7A03-4D90-0B1B-58A2DCD4F1EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -485,8 +503,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="165100"/>
-          <a:ext cx="1943100" cy="965200"/>
+          <a:off x="0" y="161925"/>
+          <a:ext cx="1695450" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -870,29 +888,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5" style="1"/>
+    <col min="3" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:7" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -900,14 +920,14 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -917,25 +937,25 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -951,7 +971,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -965,195 +985,195 @@
       <c r="F10" s="15"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="27"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="27"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="27"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="27"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="27"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="23" t="s">
+    <row r="11" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="26"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="26"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="26"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <f>SUM(E11:E33)</f>
         <v>0</v>
       </c>
@@ -1161,36 +1181,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="2:7" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <f>E34*E35</f>
         <v>0</v>
       </c>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>18</v>
       </c>
@@ -1198,12 +1219,64 @@
       <c r="E41" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FE8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZzprsRobfPmoQLaP0a12OFpYTE5DW3a0rWTTFAQZob2D96LWkUgMnXXsONZKBmQEsP0mjHyotn1qCVfQh4jJ9g==" saltValue="wdU1PnL2serANR2PTKMGkA==" spinCount="100000" sheet="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Tabelle2!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E35</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/trainerverguetung.xlsx
+++ b/docs/trainerverguetung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Nextcloud\Dokumente\encypted\VC Müllheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86B977-2287-4010-B99E-B8D14AF9E456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC351B-73DE-4190-92E5-643317F5056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="2115" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,6 +151,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,18 +366,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -428,7 +429,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -441,6 +441,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -891,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -916,29 +932,30 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -946,234 +963,234 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="29"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="29"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="29"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="29"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="29"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="26"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="29"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="26"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="29"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="20">
         <f>SUM(E11:E33)</f>
         <v>0</v>
       </c>
@@ -1182,24 +1199,24 @@
       </c>
     </row>
     <row r="35" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="32">
         <v>10</v>
       </c>
-      <c r="F35" s="37"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="2:7" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="9"/>
-      <c r="D36" s="19" t="s">
+      <c r="B36" s="6"/>
+      <c r="D36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="17">
         <f>E34*E35</f>
         <v>0</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1236,7 @@
       <c r="E41" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZzprsRobfPmoQLaP0a12OFpYTE5DW3a0rWTTFAQZob2D96LWkUgMnXXsONZKBmQEsP0mjHyotn1qCVfQh4jJ9g==" saltValue="wdU1PnL2serANR2PTKMGkA==" spinCount="100000" sheet="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9l0miyEMIw/dSd2nvQ/eYNDyIk1hhDmvUurcMxGoB21HFDV4ZEbzLnLIstP6fVQCdnF1DW0ZcVO+cySZ+jUy0g==" saltValue="HLlwBcX7M/Q/KLQbsjJwFw==" spinCount="100000" sheet="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -1252,26 +1269,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="34"/>
+    <col min="1" max="1" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="30">
         <v>12</v>
       </c>
     </row>

--- a/docs/trainerverguetung.xlsx
+++ b/docs/trainerverguetung.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Übungsstunden" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Spieltage" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Stundensätze" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve">Übungsstunden Abrechnung</t>
   </si>
@@ -68,7 +69,7 @@
     <t xml:space="preserve">Stunden</t>
   </si>
   <si>
-    <t xml:space="preserve">Summe Std.</t>
+    <t xml:space="preserve">Summe</t>
   </si>
   <si>
     <t xml:space="preserve">Trainingsstunden</t>
@@ -77,6 +78,15 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
+    <t xml:space="preserve">Stundensatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spieltage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Betrag</t>
   </si>
   <si>
@@ -86,23 +96,28 @@
     <t xml:space="preserve">überwiesen am:</t>
   </si>
   <si>
-    <t xml:space="preserve">Pauschale</t>
+    <t xml:space="preserve">Anlass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Tage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="hh:mm"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-1];[RED]\-#,##0.00\ [$€-1]"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00&quot; €&quot;;[RED]\-#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00&quot; €&quot;;[RED]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -166,6 +181,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -185,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -277,27 +306,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -324,22 +332,22 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -349,11 +357,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -369,45 +377,49 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -437,43 +449,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,9 +552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>332280</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>246600</xdr:rowOff>
+      <xdr:colOff>330840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -515,8 +567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="162000"/>
-          <a:ext cx="1772640" cy="970560"/>
+          <a:off x="0" y="162720"/>
+          <a:ext cx="1771200" cy="969120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,13 +763,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G41"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9"/>
@@ -728,8 +780,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="2" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -771,7 +823,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
@@ -779,224 +831,224 @@
     </row>
     <row r="8" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="26"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="26"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="26"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="26"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="26"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="28" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="27"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="27"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="27"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="27"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="27"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="27"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="27"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="27"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="29" t="n">
+      <c r="E34" s="30" t="n">
         <f aca="false">SUM(E11:E33)</f>
         <v>0</v>
       </c>
@@ -1005,16 +1057,18 @@
       </c>
     </row>
     <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="32"/>
+      <c r="F35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11"/>
-      <c r="D36" s="32" t="s">
-        <v>18</v>
+      <c r="D36" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="E36" s="33" t="n">
         <f aca="false">E34*E35</f>
@@ -1022,28 +1076,46 @@
       </c>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="2" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="36" t="n">
+        <f aca="false">Spieltage!C27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="38" t="n">
+        <f aca="false">SUM(E36:E37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="2" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="42" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9l0miyEMIw/dSd2nvQ/eYNDyIk1hhDmvUurcMxGoB21HFDV4ZEbzLnLIstP6fVQCdnF1DW0ZcVO+cySZ+jUy0g==" saltValue="HLlwBcX7M/Q/KLQbsjJwFw==" spinCount="100000" sheet="true"/>
+  <sheetProtection sheet="true" password="9fe8" objects="true" scenarios="true"/>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E35" type="list">
-      <formula1>Tabelle2!$A$2:$A$5</formula1>
+      <formula1>Stundensätze!$A$2:$A$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1063,43 +1135,295 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="41" t="n">
+        <f aca="false">COUNTA(B$5:B$24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="44" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="46" t="n">
+        <f aca="false">C25*C26</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="9fe8" objects="true" scenarios="true"/>
+  <mergeCells count="21">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>21</v>
+      <c r="A1" s="48" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="n">
+      <c r="A2" s="47" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="n">
+      <c r="A3" s="47" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="n">
+      <c r="A4" s="47" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="n">
+      <c r="A5" s="47" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="9fe8" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
